--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/03.BaoGiaBH/BG2203015_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/03.BaoGiaBH/BG2203015_Techglobal.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -107,12 +107,6 @@
     <t>TG102SE</t>
   </si>
   <si>
-    <t>VT_Module_SIM28M</t>
-  </si>
-  <si>
-    <t>Module GPS</t>
-  </si>
-  <si>
     <t>Mã số phiếu: BG220310</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
     <t>Module GSM</t>
   </si>
   <si>
-    <t>VT_IC_STM32F303RCT6</t>
-  </si>
-  <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>VT_CẦU CHÌ 60V - 550mA</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
   </si>
   <si>
     <t>Module GSM/GPS</t>
-  </si>
-  <si>
-    <t>TG102V</t>
   </si>
   <si>
     <t>TG102</t>
@@ -286,7 +271,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -650,7 +641,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,13 +695,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,25 +719,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,68 +791,49 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1227,94 +1220,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="58" t="s">
+      <c r="A6" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1322,13 +1315,13 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="13"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1336,13 +1329,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1350,13 +1343,13 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="13"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1365,13 +1358,13 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="14"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -1411,645 +1404,473 @@
       </c>
       <c r="AA12" s="15"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+    <row r="13" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
         <v>1</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="61">
         <v>868926033969152</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="64">
+        <v>1</v>
+      </c>
+      <c r="I13" s="65">
+        <v>12000</v>
+      </c>
+      <c r="J13" s="65">
+        <v>12000</v>
+      </c>
+      <c r="AA13" s="59"/>
+    </row>
+    <row r="14" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="69">
+        <v>1</v>
+      </c>
+      <c r="I14" s="65">
+        <v>12000</v>
+      </c>
+      <c r="J14" s="65">
+        <v>12000</v>
+      </c>
+      <c r="AA14" s="59"/>
+    </row>
+    <row r="15" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70">
+        <v>2</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="71">
+        <v>865209034382862</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="64">
+        <v>1</v>
+      </c>
+      <c r="I15" s="65">
+        <v>275000</v>
+      </c>
+      <c r="J15" s="65">
+        <v>275000</v>
+      </c>
+      <c r="AA15" s="59"/>
+    </row>
+    <row r="16" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
+        <v>3</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="71">
+        <v>868183038049263</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G16" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H16" s="69">
         <v>1</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I16" s="65">
+        <v>350000</v>
+      </c>
+      <c r="J16" s="65">
+        <v>350000</v>
+      </c>
+      <c r="AA16" s="59"/>
+    </row>
+    <row r="17" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70">
+        <v>4</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="71">
+        <v>868183034701727</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="69">
+        <v>1</v>
+      </c>
+      <c r="I17" s="65">
         <v>12000</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J17" s="65">
         <v>12000</v>
       </c>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="37" t="s">
+      <c r="AA17" s="59"/>
+    </row>
+    <row r="18" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70">
+        <v>5</v>
+      </c>
+      <c r="B18" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="C18" s="71">
+        <v>864161020965484</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="69">
+        <v>1</v>
+      </c>
+      <c r="I18" s="65">
+        <v>12000</v>
+      </c>
+      <c r="J18" s="65">
+        <v>12000</v>
+      </c>
+      <c r="AA18" s="59"/>
+    </row>
+    <row r="19" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70">
+        <v>6</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="71">
+        <v>865904020106529</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="F19" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H19" s="65">
         <v>1</v>
       </c>
-      <c r="I14" s="35">
-        <v>12000</v>
-      </c>
-      <c r="J14" s="35">
-        <v>12000</v>
-      </c>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="27">
-        <v>865209034382862</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="I19" s="65">
+        <v>38000</v>
+      </c>
+      <c r="J19" s="65">
+        <v>38000</v>
+      </c>
+      <c r="AA19" s="59"/>
+    </row>
+    <row r="20" spans="1:27" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70">
+        <v>7</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="71">
+        <v>865904027264214</v>
+      </c>
+      <c r="D20" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="39" t="s">
+      <c r="E20" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H20" s="65">
         <v>1</v>
       </c>
-      <c r="I15" s="35">
-        <v>275000</v>
-      </c>
-      <c r="J15" s="35">
-        <v>275000</v>
-      </c>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>3</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="27">
-        <v>863586032938783</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="40">
-        <v>1</v>
-      </c>
-      <c r="I16" s="35">
-        <v>275000</v>
-      </c>
-      <c r="J16" s="35">
-        <v>275000</v>
-      </c>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
-        <v>4</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="52">
-        <v>863586032854196</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="36">
-        <v>1</v>
-      </c>
-      <c r="I17" s="35">
-        <v>240000</v>
-      </c>
-      <c r="J17" s="35">
-        <v>240000</v>
-      </c>
-      <c r="AA17" s="15"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="35">
-        <v>1</v>
-      </c>
-      <c r="I18" s="35">
-        <v>385000</v>
-      </c>
-      <c r="J18" s="35">
-        <v>385000</v>
-      </c>
-      <c r="AA18" s="15"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>5</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="27">
-        <v>867717030421375</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="39" t="s">
+      <c r="I20" s="65">
+        <v>38000</v>
+      </c>
+      <c r="J20" s="65">
+        <v>38000</v>
+      </c>
+      <c r="AA20" s="59"/>
+    </row>
+    <row r="21" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="25">
+        <f>SUM(J13:J20)</f>
+        <v>749000</v>
+      </c>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="24"/>
+      <c r="AA22" s="15"/>
+    </row>
+    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="24"/>
+      <c r="AA23" s="15"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="36">
-        <v>1</v>
-      </c>
-      <c r="I19" s="35">
-        <v>350000</v>
-      </c>
-      <c r="J19" s="35">
-        <v>350000</v>
-      </c>
-      <c r="AA19" s="15"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="30"/>
+      <c r="AA24" s="15"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="27">
-        <v>868183038049263</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="36">
-        <v>1</v>
-      </c>
-      <c r="I20" s="35">
-        <v>350000</v>
-      </c>
-      <c r="J20" s="35">
-        <v>350000</v>
-      </c>
-      <c r="AA20" s="15"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>7</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="27">
-        <v>868183034701727</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="36">
-        <v>1</v>
-      </c>
-      <c r="I21" s="35">
-        <v>12000</v>
-      </c>
-      <c r="J21" s="35">
-        <v>12000</v>
-      </c>
-      <c r="AA21" s="15"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>8</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="27">
-        <v>866050031810722</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="40">
-        <v>1</v>
-      </c>
-      <c r="I22" s="35">
-        <v>275000</v>
-      </c>
-      <c r="J22" s="35">
-        <v>275000</v>
-      </c>
-      <c r="AA22" s="15"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>9</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="27">
-        <v>863586032848529</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="35">
-        <v>1</v>
-      </c>
-      <c r="I23" s="35">
-        <v>385000</v>
-      </c>
-      <c r="J23" s="35">
-        <v>385000</v>
-      </c>
-      <c r="AA23" s="15"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>10</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="27">
-        <v>864161020965484</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="36">
-        <v>1</v>
-      </c>
-      <c r="I24" s="35">
-        <v>12000</v>
-      </c>
-      <c r="J24" s="35">
-        <v>12000</v>
-      </c>
-      <c r="AA24" s="15"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>11</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="27">
-        <v>865904020106529</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="35">
-        <v>1</v>
-      </c>
-      <c r="I25" s="35">
-        <v>38000</v>
-      </c>
-      <c r="J25" s="35">
-        <v>38000</v>
-      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>12</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="27">
-        <v>865904027264214</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="35">
-        <v>1</v>
-      </c>
-      <c r="I26" s="35">
-        <v>38000</v>
-      </c>
-      <c r="J26" s="35">
-        <v>38000</v>
-      </c>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
       <c r="AA26" s="15"/>
     </row>
-    <row r="27" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="26">
-        <f>SUM(J13:J26)</f>
-        <v>2659000</v>
-      </c>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="24"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="AA28" s="15"/>
     </row>
-    <row r="29" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="24"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="32"/>
+    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
       <c r="AA31" s="15"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
+    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F32" s="23"/>
       <c r="AA32" s="15"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+    <row r="33" spans="5:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E33" s="23"/>
       <c r="AA33" s="15"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
+    <row r="34" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA34" s="15"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA35" s="15"/>
     </row>
-    <row r="36" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F38" s="23"/>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA38" s="15"/>
     </row>
-    <row r="39" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E39" s="23"/>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA39" s="15"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA41" s="15"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA42" s="15"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA43" s="15"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA46" s="15"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA47" s="15"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:27" x14ac:dyDescent="0.25">
       <c r="AA48" s="15"/>
     </row>
     <row r="49" spans="27:27" x14ac:dyDescent="0.25">
@@ -2058,53 +1879,31 @@
     <row r="50" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA50" s="15"/>
     </row>
-    <row r="51" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA51" s="15"/>
-    </row>
-    <row r="52" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA52" s="15"/>
-    </row>
-    <row r="53" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA53" s="15"/>
-    </row>
-    <row r="54" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA54" s="15"/>
-    </row>
-    <row r="55" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA55" s="15"/>
-    </row>
-    <row r="56" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA56" s="15"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="26">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="B29:E29"/>
+  <mergeCells count="22">
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
